--- a/PandasBasic/Datos/GISClassificationMethodValue.xlsx
+++ b/PandasBasic/Datos/GISClassificationMethodValue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PandasBasic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PandasBasic\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD47147-F793-49CF-93AA-E6F42F9FBC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343BD2C-D15F-499E-8C96-434C543E0DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
   </bookViews>
@@ -926,6 +926,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071D7322AB1F17A44BE7FE5C8D995D347" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="650251c4df46a7abc1f1ef8c57a67c42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256" xmlns:ns4="85273d68-90a1-4455-8abc-8dc013f26eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e118897d8abc39adc371fce47b2cc2b0" ns3:_="" ns4:_="">
     <xsd:import namespace="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
@@ -1154,22 +1169,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B118D8-7574-42EC-B0BB-2C816C0CAF32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="85273d68-90a1-4455-8abc-8dc013f26eed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B807C2B-0D1C-4DFC-93CF-ABEBBAB125E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805266D3-A804-41FA-83DA-D70D5B688EE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1186,29 +1211,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B807C2B-0D1C-4DFC-93CF-ABEBBAB125E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B118D8-7574-42EC-B0BB-2C816C0CAF32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="85273d68-90a1-4455-8abc-8dc013f26eed"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PandasBasic/Datos/GISClassificationMethodValue.xlsx
+++ b/PandasBasic/Datos/GISClassificationMethodValue.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PandasBasic\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343BD2C-D15F-499E-8C96-434C543E0DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924B78B3-4518-4C9A-8012-27FDE14720CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
   </bookViews>
   <sheets>
     <sheet name="ArcMapValor" sheetId="1" r:id="rId1"/>
     <sheet name="ArcMapPercentage" sheetId="3" r:id="rId2"/>
     <sheet name="ArcMapCount" sheetId="2" r:id="rId3"/>
+    <sheet name="ArcGISProValor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Clase</t>
   </si>
@@ -574,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E680E5D3-B6F2-4F2E-AC4B-F43FB2E763F8}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5C0FCA-82FF-4DF0-A490-3336880B1267}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -925,22 +928,126 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55665C0-EDE0-4CF6-9117-D0AC32198160}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2380.1736970000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16308.675955999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>132.66673599999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>191.65569099999999</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2612.3563199999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9038.960497</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32601.619061000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>287.44813099999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1390.204041</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5810.910895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20170.295287000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>48894.562166000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>699.36305500000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9555.8188929999997</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9009.4654699999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="C5" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="E5" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>65187.505271000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071D7322AB1F17A44BE7FE5C8D995D347" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="650251c4df46a7abc1f1ef8c57a67c42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256" xmlns:ns4="85273d68-90a1-4455-8abc-8dc013f26eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e118897d8abc39adc371fce47b2cc2b0" ns3:_="" ns4:_="">
     <xsd:import namespace="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
@@ -1169,32 +1276,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B118D8-7574-42EC-B0BB-2C816C0CAF32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="85273d68-90a1-4455-8abc-8dc013f26eed"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B807C2B-0D1C-4DFC-93CF-ABEBBAB125E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805266D3-A804-41FA-83DA-D70D5B688EE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1211,4 +1308,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B807C2B-0D1C-4DFC-93CF-ABEBBAB125E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B118D8-7574-42EC-B0BB-2C816C0CAF32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="85273d68-90a1-4455-8abc-8dc013f26eed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PandasBasic/Datos/GISClassificationMethodValue.xlsx
+++ b/PandasBasic/Datos/GISClassificationMethodValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PandasBasic\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924B78B3-4518-4C9A-8012-27FDE14720CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473299BE-6330-4B34-9EAD-9F4615437677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
+    <workbookView xWindow="31290" yWindow="2175" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
   </bookViews>
   <sheets>
     <sheet name="ArcMapValor" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -687,6 +687,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -813,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E2BAF9-9C87-4BFB-955F-B0BA3B37D857}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -932,9 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55665C0-EDE0-4CF6-9117-D0AC32198160}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1048,6 +1047,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071D7322AB1F17A44BE7FE5C8D995D347" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="650251c4df46a7abc1f1ef8c57a67c42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256" xmlns:ns4="85273d68-90a1-4455-8abc-8dc013f26eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e118897d8abc39adc371fce47b2cc2b0" ns3:_="" ns4:_="">
     <xsd:import namespace="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
@@ -1276,22 +1290,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B118D8-7574-42EC-B0BB-2C816C0CAF32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="85273d68-90a1-4455-8abc-8dc013f26eed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B807C2B-0D1C-4DFC-93CF-ABEBBAB125E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{805266D3-A804-41FA-83DA-D70D5B688EE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1308,29 +1332,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B807C2B-0D1C-4DFC-93CF-ABEBBAB125E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B118D8-7574-42EC-B0BB-2C816C0CAF32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="85273d68-90a1-4455-8abc-8dc013f26eed"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7eeb79fa-ffdc-4bd7-a04f-d010a9c58256"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PandasBasic/Datos/GISClassificationMethodValue.xlsx
+++ b/PandasBasic/Datos/GISClassificationMethodValue.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PandasBasic\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473299BE-6330-4B34-9EAD-9F4615437677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD1F79-61FA-438E-B502-C6650F735CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="2175" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
+    <workbookView xWindow="31920" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
   </bookViews>
   <sheets>
     <sheet name="ArcMapValor" sheetId="1" r:id="rId1"/>
     <sheet name="ArcMapPercentage" sheetId="3" r:id="rId2"/>
     <sheet name="ArcMapCount" sheetId="2" r:id="rId3"/>
     <sheet name="ArcGISProValor" sheetId="4" r:id="rId4"/>
+    <sheet name="QGIS322Valor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Clase</t>
   </si>
@@ -61,6 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -230,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -257,6 +261,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -576,7 +592,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="B2" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -609,19 +625,19 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>2380.1736970000002</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>16308.675955999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>132.66673599999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
         <v>191.65569099999999</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="11">
         <v>2612.3563199999999</v>
       </c>
     </row>
@@ -629,19 +645,19 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>9038.960497</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="10">
         <v>32601.619061000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>287.44813099999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>1390.204041</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="11">
         <v>5810.910895</v>
       </c>
     </row>
@@ -649,19 +665,19 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>20170.295287000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>48894.562166000003</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>699.36305500000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>9555.8188929999997</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="11">
         <v>9009.4654699999992</v>
       </c>
     </row>
@@ -669,19 +685,19 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>65187.505271000002</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>65187.505271000002</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>65187.505271000002</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>65187.505271000002</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>65187.505271000002</v>
       </c>
     </row>
@@ -814,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E2BAF9-9C87-4BFB-955F-B0BA3B37D857}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1038,6 +1054,201 @@
         <v>65187.505271000002</v>
       </c>
       <c r="F5" s="9">
+        <v>65187.505271000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CD4312-AD3D-4E94-B20E-02DE32F5D346}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>16308.67595648</v>
+      </c>
+      <c r="D2" s="1">
+        <v>132.67537161999999</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>32601.619061459998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>287.39444773000002</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>48894.562166429998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>699.16110076999996</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>65187.505271399998</v>
+      </c>
+      <c r="D5" s="8">
+        <v>65187.505271399998</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2380.1736970000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16308.675955999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>132.66673599999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>191.65569099999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2612.3563199999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9038.960497</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32601.619061000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>287.44813099999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1390.204041</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5810.910895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20170.295287000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>48894.562166000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>699.36305500000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9555.8188929999997</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9009.4654699999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="D11" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="E11" s="8">
+        <v>65187.505271000002</v>
+      </c>
+      <c r="F11" s="9">
         <v>65187.505271000002</v>
       </c>
     </row>

--- a/PandasBasic/Datos/GISClassificationMethodValue.xlsx
+++ b/PandasBasic/Datos/GISClassificationMethodValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PandasBasic\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD1F79-61FA-438E-B502-C6650F735CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB9548-BF8B-47E8-AE69-936695A5E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
   </bookViews>
   <sheets>
     <sheet name="ArcMapValor" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>Clase</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Pretty Breaks</t>
+  </si>
+  <si>
+    <t>Logarithmic Scale</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -222,6 +228,45 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
@@ -234,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -273,6 +318,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1064,19 +1118,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CD4312-AD3D-4E94-B20E-02DE32F5D346}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+    <col min="2" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,15 +1146,23 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>2380.1736969799999</v>
+      </c>
       <c r="C2" s="1">
         <v>16308.67595648</v>
       </c>
@@ -1108,13 +1170,21 @@
         <v>132.67537161999999</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
+        <v>20000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>9038.9604969699994</v>
+      </c>
       <c r="C3" s="1">
         <v>32601.619061459998</v>
       </c>
@@ -1122,13 +1192,21 @@
         <v>287.39444773000002</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
+        <v>40000</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>20170.295287299999</v>
+      </c>
       <c r="C4" s="1">
         <v>48894.562166429998</v>
       </c>
@@ -1136,13 +1214,21 @@
         <v>699.16110076999996</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15">
+        <v>60000</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <v>65187.505271399998</v>
+      </c>
       <c r="C5" s="8">
         <v>65187.505271399998</v>
       </c>
@@ -1150,106 +1236,12 @@
         <v>65187.505271399998</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2380.1736970000002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16308.675955999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>132.66673599999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>191.65569099999999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2612.3563199999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9038.960497</v>
-      </c>
-      <c r="C9" s="1">
-        <v>32601.619061000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>287.44813099999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1390.204041</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5810.910895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20170.295287000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>48894.562166000003</v>
-      </c>
-      <c r="D10" s="1">
-        <v>699.36305500000003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9555.8188929999997</v>
-      </c>
-      <c r="F10" s="6">
-        <v>9009.4654699999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
-        <v>65187.505271000002</v>
-      </c>
-      <c r="C11" s="8">
-        <v>65187.505271000002</v>
-      </c>
-      <c r="D11" s="8">
-        <v>65187.505271000002</v>
-      </c>
-      <c r="E11" s="8">
-        <v>65187.505271000002</v>
-      </c>
-      <c r="F11" s="9">
-        <v>65187.505271000002</v>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16">
+        <v>65187.505271399998</v>
+      </c>
+      <c r="H5" s="9">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/PandasBasic/Datos/GISClassificationMethodValue.xlsx
+++ b/PandasBasic/Datos/GISClassificationMethodValue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\PandasBasic\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB9548-BF8B-47E8-AE69-936695A5E791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E923F-2FDB-4CBB-B32B-57A387734020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{252594F7-F24C-4A13-ADB4-F1293DACAD84}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B11" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
